--- a/biology/Zoologie/Atelopus_bomolochos/Atelopus_bomolochos.xlsx
+++ b/biology/Zoologie/Atelopus_bomolochos/Atelopus_bomolochos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atelopus bomolochos est une espèce d'amphibiens de la famille des Bufonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atelopus bomolochos est une espèce d'amphibiens de la famille des Bufonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce est endémique de la Cordillère Orientale dans le sud de l'Équateur[1]. Elle se rencontre entre 2 500 et 2 800 m d'altitude :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce est endémique de la Cordillère Orientale dans le sud de l'Équateur. Elle se rencontre entre 2 500 et 2 800 m d'altitude :
 dans la province d'Azuay ;
 dans la province de Cañar ;
 dans le parc national Sangay situé dans les provinces de Morona-Santiago, de Chimborazo et de Tungurahua.</t>
@@ -544,7 +558,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, du grec ancien βωμόλοχος, bomolochos, « flatteur, lèche-botte » mais également « toady » en anglais, lui a été donné par jeu de mots entre toady et toad, « crapaud » en anglais.
 </t>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Peters, 1973 : The Frog Genus Atelopus in Ecuador. Smithsonian Contributions to Zoology, no 145, p. 1-49 (texte intégral).</t>
         </is>
